--- a/data/trans_orig/P44-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EAFBCF-3D8D-4455-93C5-F0D2DCAC2984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8C5210-7CA6-4ECC-991A-7424DE0D81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5607FB1B-4194-4A21-9E5A-2AF21CE6B68A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BF1343F-27E4-458A-BAB8-4770E953A9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,16 +76,16 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>8,35%</t>
@@ -94,10 +94,10 @@
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>93,48%</t>
@@ -118,16 +118,16 @@
     <t>91,65%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>94,91%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>11,4%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,307 +196,307 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>23,71%</t>
+    <t>25,06%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>76,29%</t>
+    <t>74,94%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>21,14%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>78,86%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>10,65%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>89,35%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -505,16 +505,16 @@
     <t>35,47%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>24,7%</t>
+    <t>24,68%</t>
   </si>
   <si>
     <t>29,76%</t>
@@ -523,19 +523,19 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>72,9%</t>
@@ -544,88 +544,88 @@
     <t>70,24%</t>
   </si>
   <si>
-    <t>75,3%</t>
+    <t>75,32%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>26,65%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>62,18%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>67,84%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>44,94%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>42,09%</t>
@@ -634,31 +634,31 @@
     <t>38,4%</t>
   </si>
   <si>
-    <t>45,56%</t>
+    <t>45,94%</t>
   </si>
   <si>
     <t>55,06%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>54,44%</t>
+    <t>54,06%</t>
   </si>
   <si>
     <t>61,6%</t>
@@ -667,55 +667,55 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>61,52%</t>
   </si>
   <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38279FA9-26F5-4903-A536-55FE46F44C44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB4E8A7-3BD8-4036-BD69-29CF2A4EB08A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1484,7 +1484,7 @@
         <v>668</v>
       </c>
       <c r="N8" s="7">
-        <v>745423</v>
+        <v>745422</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1535,7 +1535,7 @@
         <v>736</v>
       </c>
       <c r="N9" s="7">
-        <v>825611</v>
+        <v>825610</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1564,7 +1564,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
@@ -1618,7 +1618,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -1752,7 +1752,7 @@
         <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1767,13 @@
         <v>1077927</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>1247</v>
@@ -1782,13 +1782,13 @@
         <v>1355417</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>2223</v>
@@ -1797,13 +1797,13 @@
         <v>2433344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98B27B-88B4-4609-9ED7-552D624C790B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AAF9F7-1362-4561-BB3E-16F814411F39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +2002,13 @@
         <v>55291</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2017,13 +2017,13 @@
         <v>64267</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -2032,13 +2032,13 @@
         <v>119558</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2053,13 @@
         <v>494335</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>650</v>
@@ -2068,13 +2068,13 @@
         <v>747345</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>1155</v>
@@ -2083,13 +2083,13 @@
         <v>1241679</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2172,13 @@
         <v>37463</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -2187,13 +2187,13 @@
         <v>117151</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2208,13 @@
         <v>602801</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -2223,13 +2223,13 @@
         <v>620445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>1104</v>
@@ -2238,13 +2238,13 @@
         <v>1223245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>28943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2327,13 +2327,13 @@
         <v>16143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2342,13 +2342,13 @@
         <v>45087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>133468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -2378,13 +2378,13 @@
         <v>105569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -2393,13 +2393,13 @@
         <v>239036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2467,13 @@
         <v>163922</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -2482,13 +2482,13 @@
         <v>117874</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2497,13 +2497,13 @@
         <v>281796</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2518,13 @@
         <v>1230604</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>1281</v>
@@ -2533,13 +2533,13 @@
         <v>1473357</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>2469</v>
@@ -2548,13 +2548,13 @@
         <v>2703961</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EEE161-3B20-4710-AA64-E34BF50671C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C9D533-0855-4A11-9B86-194D283BDC10}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3361,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8C5210-7CA6-4ECC-991A-7424DE0D81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{094B21BF-E809-4887-B96F-32B14BCB467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BF1343F-27E4-458A-BAB8-4770E953A9E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0ECAB43-A6CF-4FDC-936E-3A16113AB918}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -76,319 +76,343 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2016 (Tasa respuesta: 41,68%)</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>94,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2015 (Tasa respuesta: 41,68%)</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>17,82%</t>
@@ -397,31 +421,31 @@
     <t>12,28%</t>
   </si>
   <si>
-    <t>25,46%</t>
+    <t>25,0%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>74,54%</t>
+    <t>75,0%</t>
   </si>
   <si>
     <t>87,72%</t>
@@ -430,73 +454,61 @@
     <t>86,74%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>13,42%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>86,58%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>91,15%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
@@ -1127,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB4E8A7-3BD8-4036-BD69-29CF2A4EB08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74753136-959C-4DFA-9AFE-97018DE6E707}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1484,7 +1496,7 @@
         <v>668</v>
       </c>
       <c r="N8" s="7">
-        <v>745422</v>
+        <v>745423</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1535,7 +1547,7 @@
         <v>736</v>
       </c>
       <c r="N9" s="7">
-        <v>825610</v>
+        <v>825611</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1564,10 +1576,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1576,13 +1588,13 @@
         <v>12489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -1591,13 +1603,13 @@
         <v>28075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1624,13 @@
         <v>89336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -1627,13 +1639,13 @@
         <v>50497</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -1642,13 +1654,13 @@
         <v>139833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1728,13 @@
         <v>113756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -1731,13 +1743,13 @@
         <v>108953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -1746,13 +1758,13 @@
         <v>222709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1779,13 @@
         <v>1077927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1247</v>
@@ -1782,13 +1794,13 @@
         <v>1355417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2223</v>
@@ -1797,13 +1809,13 @@
         <v>2433344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AAF9F7-1362-4561-BB3E-16F814411F39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AC12C-9FBB-43F0-B233-2D0412FFFCDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2002,13 +2014,13 @@
         <v>55291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2017,13 +2029,13 @@
         <v>64267</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -2032,13 +2044,13 @@
         <v>119558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,13 +2065,13 @@
         <v>494335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>650</v>
@@ -2068,13 +2080,13 @@
         <v>747345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1155</v>
@@ -2083,13 +2095,13 @@
         <v>1241679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,13 +2169,13 @@
         <v>79688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -2172,13 +2184,13 @@
         <v>37463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -2187,13 +2199,13 @@
         <v>117151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,13 +2220,13 @@
         <v>602801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -2223,13 +2235,13 @@
         <v>620445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1104</v>
@@ -2238,13 +2250,13 @@
         <v>1223245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2324,13 @@
         <v>28943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2327,13 +2339,13 @@
         <v>16143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2342,13 +2354,13 @@
         <v>45087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2375,13 @@
         <v>133468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -2378,13 +2390,13 @@
         <v>105569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -2393,13 +2405,13 @@
         <v>239036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2479,13 @@
         <v>163922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -2482,13 +2494,13 @@
         <v>117874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2497,13 +2509,13 @@
         <v>281796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2530,13 @@
         <v>1230604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>1281</v>
@@ -2533,13 +2545,13 @@
         <v>1473357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2469</v>
@@ -2548,13 +2560,13 @@
         <v>2703961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2622,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C9D533-0855-4A11-9B86-194D283BDC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723C5CEE-7F67-43B4-BED4-6453417396C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2646,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2753,13 +2765,13 @@
         <v>152508</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -2768,13 +2780,13 @@
         <v>192707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>534</v>
@@ -2783,13 +2795,13 @@
         <v>345216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2816,13 @@
         <v>277449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>927</v>
@@ -2819,13 +2831,13 @@
         <v>518485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1297</v>
@@ -2834,13 +2846,13 @@
         <v>795934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2920,13 @@
         <v>335568</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>413</v>
@@ -2923,13 +2935,13 @@
         <v>242515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>759</v>
@@ -2938,13 +2950,13 @@
         <v>578082</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2971,13 @@
         <v>551768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>974</v>
@@ -2974,13 +2986,13 @@
         <v>667564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1629</v>
@@ -2989,13 +3001,13 @@
         <v>1219334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3075,13 @@
         <v>130393</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3078,13 +3090,13 @@
         <v>93059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>319</v>
@@ -3093,13 +3105,13 @@
         <v>223452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3126,13 @@
         <v>159725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3129,13 +3141,13 @@
         <v>147764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -3144,13 +3156,13 @@
         <v>307490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3230,13 @@
         <v>618469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>900</v>
@@ -3233,13 +3245,13 @@
         <v>528281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1612</v>
@@ -3248,13 +3260,13 @@
         <v>1146750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3281,13 @@
         <v>988943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2160</v>
@@ -3284,13 +3296,13 @@
         <v>1333813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>3380</v>
@@ -3299,13 +3311,13 @@
         <v>2322756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094B21BF-E809-4887-B96F-32B14BCB467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB5F7B5-F6E1-47C0-8645-AC0252801E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0ECAB43-A6CF-4FDC-936E-3A16113AB918}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F82CB417-6589-4697-9307-2663D7B483ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>11,4%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,109 +196,103 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>23,71%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>76,29%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,223 +304,217 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>10,48%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>89,52%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>24,68%</t>
+    <t>24,7%</t>
   </si>
   <si>
     <t>29,76%</t>
@@ -535,19 +523,19 @@
     <t>30,25%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>72,9%</t>
@@ -556,88 +544,88 @@
     <t>70,24%</t>
   </si>
   <si>
-    <t>75,32%</t>
+    <t>75,3%</t>
   </si>
   <si>
     <t>69,75%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
   </si>
   <si>
     <t>26,65%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>62,18%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>73,35%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>67,84%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>44,94%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>42,09%</t>
@@ -646,31 +634,31 @@
     <t>38,4%</t>
   </si>
   <si>
-    <t>45,94%</t>
+    <t>45,56%</t>
   </si>
   <si>
     <t>55,06%</t>
   </si>
   <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>54,06%</t>
+    <t>54,44%</t>
   </si>
   <si>
     <t>61,6%</t>
@@ -679,55 +667,55 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>33,05%</t>
   </si>
   <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>61,52%</t>
   </si>
   <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74753136-959C-4DFA-9AFE-97018DE6E707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C704B000-AB55-4FDB-A51B-5A4B6FEA24F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,10 +1564,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -1588,13 +1576,13 @@
         <v>12489</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -1603,13 +1591,13 @@
         <v>28075</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,13 +1612,13 @@
         <v>89336</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -1639,13 +1627,13 @@
         <v>50497</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>117</v>
@@ -1654,13 +1642,13 @@
         <v>139833</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1716,13 @@
         <v>113756</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -1743,13 +1731,13 @@
         <v>108953</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -1758,13 +1746,13 @@
         <v>222709</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1767,13 @@
         <v>1077927</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1247</v>
@@ -1794,13 +1782,13 @@
         <v>1355417</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2223</v>
@@ -1809,13 +1797,13 @@
         <v>2433344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1859,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82AC12C-9FBB-43F0-B233-2D0412FFFCDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0A6AE-594E-4298-8B74-9753D4283AED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1907,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2014,13 +2002,13 @@
         <v>55291</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2029,13 +2017,13 @@
         <v>64267</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -2044,13 +2032,13 @@
         <v>119558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,13 +2053,13 @@
         <v>494335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>650</v>
@@ -2080,13 +2068,13 @@
         <v>747345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>1155</v>
@@ -2095,13 +2083,13 @@
         <v>1241679</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2157,13 @@
         <v>79688</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -2184,13 +2172,13 @@
         <v>37463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>107</v>
@@ -2199,13 +2187,13 @@
         <v>117151</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2208,13 @@
         <v>602801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -2235,13 +2223,13 @@
         <v>620445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>1104</v>
@@ -2250,13 +2238,13 @@
         <v>1223245</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,13 +2312,13 @@
         <v>28943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2339,13 +2327,13 @@
         <v>16143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2354,13 +2342,13 @@
         <v>45087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2363,13 @@
         <v>133468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -2390,13 +2378,13 @@
         <v>105569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -2405,13 +2393,13 @@
         <v>239036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2467,13 @@
         <v>163922</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -2494,13 +2482,13 @@
         <v>117874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>260</v>
@@ -2509,13 +2497,13 @@
         <v>281796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2518,13 @@
         <v>1230604</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>1281</v>
@@ -2545,13 +2533,13 @@
         <v>1473357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>2469</v>
@@ -2560,13 +2548,13 @@
         <v>2703961</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723C5CEE-7F67-43B4-BED4-6453417396C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A402B3F9-8B23-4D38-89D3-082C3315387F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2753,13 @@
         <v>152508</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -2780,13 +2768,13 @@
         <v>192707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>534</v>
@@ -2795,13 +2783,13 @@
         <v>345216</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2804,13 @@
         <v>277449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>927</v>
@@ -2831,13 +2819,13 @@
         <v>518485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1297</v>
@@ -2846,13 +2834,13 @@
         <v>795934</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2908,13 @@
         <v>335568</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>413</v>
@@ -2935,13 +2923,13 @@
         <v>242515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>759</v>
@@ -2950,13 +2938,13 @@
         <v>578082</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2959,13 @@
         <v>551768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>974</v>
@@ -2986,13 +2974,13 @@
         <v>667564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1629</v>
@@ -3001,13 +2989,13 @@
         <v>1219334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3063,13 @@
         <v>130393</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -3090,13 +3078,13 @@
         <v>93059</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>319</v>
@@ -3105,13 +3093,13 @@
         <v>223452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3114,13 @@
         <v>159725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -3141,13 +3129,13 @@
         <v>147764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -3156,13 +3144,13 @@
         <v>307490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3218,13 @@
         <v>618469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>900</v>
@@ -3245,13 +3233,13 @@
         <v>528281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>1612</v>
@@ -3260,13 +3248,13 @@
         <v>1146750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3269,13 @@
         <v>988943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2160</v>
@@ -3296,13 +3284,13 @@
         <v>1333813</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>3380</v>
@@ -3311,13 +3299,13 @@
         <v>2322756</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB5F7B5-F6E1-47C0-8645-AC0252801E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C7F619-40A4-4AE5-A6FF-6A943BF04AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F82CB417-6589-4697-9307-2663D7B483ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3802AFBE-546B-4677-B148-E2504CDC1484}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="224">
   <si>
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2012 (Tasa respuesta: 37,27%)</t>
   </si>
@@ -502,220 +502,214 @@
     <t>Población según si se han realizado alguna vez una prueba para detectar el Cáncer de colon en 2023 (Tasa respuesta: 57,26%)</t>
   </si>
   <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C704B000-AB55-4FDB-A51B-5A4B6FEA24F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E8C49E-EBC9-4FC9-841B-FC32FA6BAF0E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE0A6AE-594E-4298-8B74-9753D4283AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29DDD58-0DB2-4FE1-B060-60D43752F8BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A402B3F9-8B23-4D38-89D3-082C3315387F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E29863-1EF0-4934-B939-B61977ACFE2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2750,7 +2744,7 @@
         <v>206</v>
       </c>
       <c r="D4" s="7">
-        <v>152508</v>
+        <v>142282</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>154</v>
@@ -2765,7 +2759,7 @@
         <v>328</v>
       </c>
       <c r="I4" s="7">
-        <v>192707</v>
+        <v>170682</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>157</v>
@@ -2780,7 +2774,7 @@
         <v>534</v>
       </c>
       <c r="N4" s="7">
-        <v>345216</v>
+        <v>312964</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>160</v>
@@ -2801,7 +2795,7 @@
         <v>370</v>
       </c>
       <c r="D5" s="7">
-        <v>277449</v>
+        <v>260540</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>163</v>
@@ -2816,7 +2810,7 @@
         <v>927</v>
       </c>
       <c r="I5" s="7">
-        <v>518485</v>
+        <v>469326</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>166</v>
@@ -2831,7 +2825,7 @@
         <v>1297</v>
       </c>
       <c r="N5" s="7">
-        <v>795934</v>
+        <v>729867</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>169</v>
@@ -2852,7 +2846,7 @@
         <v>576</v>
       </c>
       <c r="D6" s="7">
-        <v>429957</v>
+        <v>402822</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2861,7 @@
         <v>1255</v>
       </c>
       <c r="I6" s="7">
-        <v>711192</v>
+        <v>640008</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2882,7 +2876,7 @@
         <v>1831</v>
       </c>
       <c r="N6" s="7">
-        <v>1141150</v>
+        <v>1042831</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2905,7 +2899,7 @@
         <v>346</v>
       </c>
       <c r="D7" s="7">
-        <v>335568</v>
+        <v>512398</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>172</v>
@@ -2920,7 +2914,7 @@
         <v>413</v>
       </c>
       <c r="I7" s="7">
-        <v>242515</v>
+        <v>223015</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>175</v>
@@ -2935,7 +2929,7 @@
         <v>759</v>
       </c>
       <c r="N7" s="7">
-        <v>578082</v>
+        <v>735413</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>178</v>
@@ -2956,7 +2950,7 @@
         <v>655</v>
       </c>
       <c r="D8" s="7">
-        <v>551768</v>
+        <v>513457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>181</v>
@@ -2971,7 +2965,7 @@
         <v>974</v>
       </c>
       <c r="I8" s="7">
-        <v>667564</v>
+        <v>717088</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>184</v>
@@ -2986,7 +2980,7 @@
         <v>1629</v>
       </c>
       <c r="N8" s="7">
-        <v>1219334</v>
+        <v>1230545</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>187</v>
@@ -3007,7 +3001,7 @@
         <v>1001</v>
       </c>
       <c r="D9" s="7">
-        <v>887336</v>
+        <v>1025855</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3022,7 +3016,7 @@
         <v>1387</v>
       </c>
       <c r="I9" s="7">
-        <v>910079</v>
+        <v>940103</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3037,7 +3031,7 @@
         <v>2388</v>
       </c>
       <c r="N9" s="7">
-        <v>1797416</v>
+        <v>1965958</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3060,7 +3054,7 @@
         <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>130393</v>
+        <v>123905</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>190</v>
@@ -3075,7 +3069,7 @@
         <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>93059</v>
+        <v>85727</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>193</v>
@@ -3090,7 +3084,7 @@
         <v>319</v>
       </c>
       <c r="N10" s="7">
-        <v>223452</v>
+        <v>209632</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>196</v>
@@ -3111,7 +3105,7 @@
         <v>195</v>
       </c>
       <c r="D11" s="7">
-        <v>159725</v>
+        <v>153759</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>199</v>
@@ -3126,7 +3120,7 @@
         <v>259</v>
       </c>
       <c r="I11" s="7">
-        <v>147764</v>
+        <v>135566</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>202</v>
@@ -3141,7 +3135,7 @@
         <v>454</v>
       </c>
       <c r="N11" s="7">
-        <v>307490</v>
+        <v>289325</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>205</v>
@@ -3162,7 +3156,7 @@
         <v>355</v>
       </c>
       <c r="D12" s="7">
-        <v>290118</v>
+        <v>277664</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3171,7 @@
         <v>418</v>
       </c>
       <c r="I12" s="7">
-        <v>240823</v>
+        <v>221293</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3192,7 +3186,7 @@
         <v>773</v>
       </c>
       <c r="N12" s="7">
-        <v>530942</v>
+        <v>498957</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3215,7 +3209,7 @@
         <v>712</v>
       </c>
       <c r="D13" s="7">
-        <v>618469</v>
+        <v>778586</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>208</v>
@@ -3230,7 +3224,7 @@
         <v>900</v>
       </c>
       <c r="I13" s="7">
-        <v>528281</v>
+        <v>479423</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>211</v>
@@ -3245,7 +3239,7 @@
         <v>1612</v>
       </c>
       <c r="N13" s="7">
-        <v>1146750</v>
+        <v>1258010</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>214</v>
@@ -3254,7 +3248,7 @@
         <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,46 +3260,46 @@
         <v>1220</v>
       </c>
       <c r="D14" s="7">
-        <v>988943</v>
+        <v>927756</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2160</v>
       </c>
       <c r="I14" s="7">
-        <v>1333813</v>
+        <v>1321981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>3380</v>
       </c>
       <c r="N14" s="7">
-        <v>2322756</v>
+        <v>2249736</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3311,7 @@
         <v>1932</v>
       </c>
       <c r="D15" s="7">
-        <v>1607412</v>
+        <v>1706342</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3332,7 +3326,7 @@
         <v>3060</v>
       </c>
       <c r="I15" s="7">
-        <v>1862094</v>
+        <v>1801404</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3347,7 +3341,7 @@
         <v>4992</v>
       </c>
       <c r="N15" s="7">
-        <v>3469506</v>
+        <v>3507746</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
